--- a/bom.xlsx
+++ b/bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDAL-BM-1\Desktop\GITHUB\AL_window\AL_window\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDAL-BM-1\PycharmProjects\pdal_window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97D91B-C07B-42DE-87CA-5E05A411E9C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925B8C2-AA94-4051-9162-EA3D18E836BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" xr2:uid="{B81EB7DC-D5E6-4AD3-B7FE-E1FC0D51B711}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>套數</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,13 +616,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
+      <xdr:colOff>112059</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>753719</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
@@ -647,8 +647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8283" y="4770782"/>
-          <a:ext cx="3362740" cy="2840935"/>
+          <a:off x="112059" y="4941306"/>
+          <a:ext cx="3384176" cy="2919863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,14 +959,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC941646-A2B3-422A-B149-CCF61249B279}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
@@ -1306,17 +1306,15 @@
         <v>11</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E16" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1324,7 +1322,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>11</v>
@@ -1333,13 +1331,13 @@
         <v>12</v>
       </c>
       <c r="E17" s="10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="14"/>
     </row>
@@ -1347,12 +1345,24 @@
       <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="13"/>
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="10">
+        <v>8</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
